--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pf4</t>
+  </si>
+  <si>
+    <t>Ldlr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pf4</t>
-  </si>
-  <si>
-    <t>Ldlr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H2">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I2">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J2">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N2">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q2">
-        <v>64.06146002178112</v>
+        <v>1.445453633244</v>
       </c>
       <c r="R2">
-        <v>576.55314019603</v>
+        <v>13.009082699196</v>
       </c>
       <c r="S2">
-        <v>0.02531034692943737</v>
+        <v>0.000612956238016561</v>
       </c>
       <c r="T2">
-        <v>0.02531034692943736</v>
+        <v>0.000612956238016561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H3">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I3">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J3">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q3">
-        <v>151.74156256577</v>
+        <v>2.660293439577</v>
       </c>
       <c r="R3">
-        <v>1365.67406309193</v>
+        <v>23.942640956193</v>
       </c>
       <c r="S3">
-        <v>0.05995229566807775</v>
+        <v>0.001128118828055133</v>
       </c>
       <c r="T3">
-        <v>0.05995229566807776</v>
+        <v>0.001128118828055133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H4">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I4">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J4">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N4">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q4">
-        <v>141.5399892176144</v>
+        <v>2.258277336459</v>
       </c>
       <c r="R4">
-        <v>1273.85990295853</v>
+        <v>20.324496028131</v>
       </c>
       <c r="S4">
-        <v>0.05592170753318156</v>
+        <v>0.0009576406663750135</v>
       </c>
       <c r="T4">
-        <v>0.05592170753318154</v>
+        <v>0.0009576406663750134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>26.70522333333333</v>
+        <v>0.468189</v>
       </c>
       <c r="H5">
-        <v>80.11566999999999</v>
+        <v>1.404567</v>
       </c>
       <c r="I5">
-        <v>0.2696387810903721</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="J5">
-        <v>0.269638781090372</v>
+        <v>0.003982692816773671</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N5">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q5">
-        <v>325.123097541311</v>
+        <v>3.027833353239</v>
       </c>
       <c r="R5">
-        <v>2926.1078778718</v>
+        <v>27.250500179151</v>
       </c>
       <c r="S5">
-        <v>0.1284544309596754</v>
+        <v>0.001283977084326963</v>
       </c>
       <c r="T5">
-        <v>0.1284544309596754</v>
+        <v>0.001283977084326963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H6">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J6">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N6">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O6">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P6">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q6">
-        <v>0.08459336407077779</v>
+        <v>361.4882948989724</v>
       </c>
       <c r="R6">
-        <v>0.7613402766370002</v>
+        <v>3253.394654090751</v>
       </c>
       <c r="S6">
-        <v>3.342239455409869E-05</v>
+        <v>0.1532920186661512</v>
       </c>
       <c r="T6">
-        <v>3.342239455409869E-05</v>
+        <v>0.1532920186661512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H7">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J7">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P7">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q7">
-        <v>0.200375221583</v>
+        <v>665.3032081322239</v>
       </c>
       <c r="R7">
-        <v>1.803376994247</v>
+        <v>5987.728873190015</v>
       </c>
       <c r="S7">
-        <v>7.916719932084384E-05</v>
+        <v>0.2821271760076154</v>
       </c>
       <c r="T7">
-        <v>7.916719932084387E-05</v>
+        <v>0.2821271760076153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H8">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I8">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J8">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N8">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q8">
-        <v>0.1869040111541111</v>
+        <v>564.7644483299414</v>
       </c>
       <c r="R8">
-        <v>1.682136100387</v>
+        <v>5082.880034969472</v>
       </c>
       <c r="S8">
-        <v>7.384479472065672E-05</v>
+        <v>0.2394929063458814</v>
       </c>
       <c r="T8">
-        <v>7.384479472065672E-05</v>
+        <v>0.2394929063458814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.03526433333333334</v>
+        <v>117.0877013333333</v>
       </c>
       <c r="H9">
-        <v>0.105793</v>
+        <v>351.263104</v>
       </c>
       <c r="I9">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="J9">
-        <v>0.000356058877968489</v>
+        <v>0.9960173071832263</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N9">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O9">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P9">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q9">
-        <v>0.4293260963577777</v>
+        <v>757.2199418421902</v>
       </c>
       <c r="R9">
-        <v>3.86393486722</v>
+        <v>6814.979476579712</v>
       </c>
       <c r="S9">
-        <v>0.0001696244893728897</v>
+        <v>0.3211052061635784</v>
       </c>
       <c r="T9">
-        <v>0.0001696244893728898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H10">
-        <v>216.900745</v>
-      </c>
-      <c r="I10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J10">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.398836333333334</v>
-      </c>
-      <c r="N10">
-        <v>7.196509000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.09386760623633866</v>
-      </c>
-      <c r="P10">
-        <v>0.09386760623633868</v>
-      </c>
-      <c r="Q10">
-        <v>173.4364626110228</v>
-      </c>
-      <c r="R10">
-        <v>1560.928163499205</v>
-      </c>
-      <c r="S10">
-        <v>0.06852383691234719</v>
-      </c>
-      <c r="T10">
-        <v>0.0685238369123472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H11">
-        <v>216.900745</v>
-      </c>
-      <c r="I11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J11">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.682092999999999</v>
-      </c>
-      <c r="N11">
-        <v>17.046279</v>
-      </c>
-      <c r="O11">
-        <v>0.2223430006085962</v>
-      </c>
-      <c r="P11">
-        <v>0.2223430006085963</v>
-      </c>
-      <c r="Q11">
-        <v>410.8167349530949</v>
-      </c>
-      <c r="R11">
-        <v>3697.350614577854</v>
-      </c>
-      <c r="S11">
-        <v>0.1623115377411976</v>
-      </c>
-      <c r="T11">
-        <v>0.1623115377411977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H12">
-        <v>216.900745</v>
-      </c>
-      <c r="I12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J12">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.300086333333334</v>
-      </c>
-      <c r="N12">
-        <v>15.900259</v>
-      </c>
-      <c r="O12">
-        <v>0.2073948981190463</v>
-      </c>
-      <c r="P12">
-        <v>0.2073948981190463</v>
-      </c>
-      <c r="Q12">
-        <v>383.1975580881061</v>
-      </c>
-      <c r="R12">
-        <v>3448.778022792955</v>
-      </c>
-      <c r="S12">
-        <v>0.1513993457911441</v>
-      </c>
-      <c r="T12">
-        <v>0.1513993457911441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>72.30024833333333</v>
-      </c>
-      <c r="H13">
-        <v>216.900745</v>
-      </c>
-      <c r="I13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="J13">
-        <v>0.7300051600316594</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.17451333333333</v>
-      </c>
-      <c r="N13">
-        <v>36.52354</v>
-      </c>
-      <c r="O13">
-        <v>0.4763944950360187</v>
-      </c>
-      <c r="P13">
-        <v>0.4763944950360188</v>
-      </c>
-      <c r="Q13">
-        <v>880.2203373374776</v>
-      </c>
-      <c r="R13">
-        <v>7921.983036037298</v>
-      </c>
-      <c r="S13">
-        <v>0.3477704395869704</v>
-      </c>
-      <c r="T13">
-        <v>0.3477704395869705</v>
+        <v>0.3211052061635783</v>
       </c>
     </row>
   </sheetData>
